--- a/zucchini.xlsx
+++ b/zucchini.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1316AC7-FECB-46F9-9CDF-47F9536C0AA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA8FE9D-49B8-4FA4-8072-9DEC100A8A06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{A6752AA3-1779-4360-8A5C-BF69AC1CEB33}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +386,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -397,7 +397,7 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>SUM(A1:A3)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
